--- a/Library/bin/graphics/table/ResourceTable.xlsx
+++ b/Library/bin/graphics/table/ResourceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Library\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DACAE9F-72E6-4B3A-BD9B-6A187231F672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7361A8-1C1A-463B-8891-59236B9F58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="25410" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="25410" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="162">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,50 @@
   </si>
   <si>
     <t>bin\shader\Skybox-Panoramic.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs_5_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CascadeGSMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointGSMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0022-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0023-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\Shadow.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0024-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0025-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SKIN", ""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,8 +909,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I23" totalsRowShown="0">
-  <autoFilter ref="A2:I23" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I27" totalsRowShown="0">
+  <autoFilter ref="A2:I27" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{22546911-C0B5-4B07-B60F-245141A96152}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{F89B14CC-E2E6-4692-819C-4DCF93A5149A}" name="ShaderType : String"/>
@@ -2278,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2825,6 +2869,101 @@
         <v>77</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Library/bin/graphics/table/ResourceTable.xlsx
+++ b/Library/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Library\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7361A8-1C1A-463B-8891-59236B9F58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6064C1-F79A-4634-8CBF-80B7EBB0317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="25410" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,14 @@
   </si>
   <si>
     <t>"SKIN", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpotGSMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0026-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,8 +917,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I27" totalsRowShown="0">
-  <autoFilter ref="A2:I27" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I28" totalsRowShown="0">
+  <autoFilter ref="A2:I28" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{22546911-C0B5-4B07-B60F-245141A96152}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{F89B14CC-E2E6-4692-819C-4DCF93A5149A}" name="ShaderType : String"/>
@@ -1226,7 +1234,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>912</v>
+        <v>1024</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1311,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2322,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2964,6 +2972,29 @@
         <v>151</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Library/bin/graphics/table/ResourceTable.xlsx
+++ b/Library/bin/graphics/table/ResourceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Library\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6064C1-F79A-4634-8CBF-80B7EBB0317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D7BD2-0FE8-46D4-B731-FFD113BC4004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="168">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-0007-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00000000-0000-0000-0008-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,6 +664,26 @@
   </si>
   <si>
     <t>00000000-0000-0000-0026-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyCubeDepthPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyCubeDepthGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy2DDepthPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\CopyShadowMap.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenVS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,8 +933,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I28" totalsRowShown="0">
-  <autoFilter ref="A2:I28" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I31" totalsRowShown="0">
+  <autoFilter ref="A2:I31" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{22546911-C0B5-4B07-B60F-245141A96152}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{F89B14CC-E2E6-4692-819C-4DCF93A5149A}" name="ShaderType : String"/>
@@ -1291,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1331,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1351,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1642,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1638,7 +1654,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1652,10 +1668,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1664,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1678,10 +1694,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1690,7 +1706,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1704,7 +1720,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1730,7 +1746,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>22</v>
@@ -2002,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2171,10 +2187,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2183,7 +2199,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2197,10 +2213,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2209,7 +2225,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2223,10 +2239,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2235,7 +2251,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2249,7 +2265,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -2261,7 +2277,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2295,7 +2311,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -2307,7 +2323,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2330,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2416,7 +2432,7 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2439,7 +2455,7 @@
         <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2522,7 +2538,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -2548,7 +2564,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -2571,7 +2587,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -2594,7 +2610,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -2617,7 +2633,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -2640,7 +2656,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -2649,7 +2665,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2663,7 +2679,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -2672,7 +2688,7 @@
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2686,7 +2702,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -2695,7 +2711,7 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2709,7 +2725,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -2718,7 +2734,7 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2730,12 +2746,12 @@
         <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -2744,7 +2760,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2756,21 +2772,21 @@
         <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
         <v>145</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>146</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2782,50 +2798,50 @@
         <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
         <v>140</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
         <v>145</v>
       </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>
@@ -2833,45 +2849,45 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="C23" t="s">
-        <v>146</v>
-      </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
         <v>77</v>
@@ -2879,120 +2895,189 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>157</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>158</v>
-      </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>157</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>158</v>
-      </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
         <v>156</v>
       </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-      <c r="C27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>163</v>
       </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" t="s">
-        <v>151</v>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Library/bin/graphics/table/ResourceTable.xlsx
+++ b/Library/bin/graphics/table/ResourceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Library\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D7BD2-0FE8-46D4-B731-FFD113BC4004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EBC8E-709B-4580-A231-809E190762A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="169">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,10 @@
   </si>
   <si>
     <t>ScreenVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyCubeArrayDepthPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2349,7 +2353,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3051,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
         <v>77</v>

--- a/Library/bin/graphics/table/ResourceTable.xlsx
+++ b/Library/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Library\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EBC8E-709B-4580-A231-809E190762A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4995E8-C055-44B2-846F-0A4AC19193FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="171">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,6 +688,14 @@
   </si>
   <si>
     <t>CopyCubeArrayDepthPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerInstance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,8 +871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61C81F1-ADD9-459D-8506-F1F18886845F}" name="표1" displayName="표1" ref="A2:G11" totalsRowShown="0">
-  <autoFilter ref="A2:G11" xr:uid="{B61C81F1-ADD9-459D-8506-F1F18886845F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B61C81F1-ADD9-459D-8506-F1F18886845F}" name="표1" displayName="표1" ref="A2:G12" totalsRowShown="0">
+  <autoFilter ref="A2:G12" xr:uid="{B61C81F1-ADD9-459D-8506-F1F18886845F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{24F90A9F-20EA-49FF-930C-EF8F1866E253}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{3FEAF74B-20DC-4666-91CB-A20C7E4443FF}" name="Size : Integer"/>
@@ -1251,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1316,10 +1324,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="B4">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1336,10 +1344,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1348,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>118</v>
@@ -1356,10 +1364,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8192</v>
+        <v>1024</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1368,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>118</v>
@@ -1376,10 +1384,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>256</v>
+        <v>8192</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1388,9 +1396,49 @@
         <v>12</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9">
+        <v>72000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2352,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
